--- a/Output/Habitat_Attributes_Ratings_Table.xlsx
+++ b/Output/Habitat_Attributes_Ratings_Table.xlsx
@@ -33010,7 +33010,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -33122,7 +33127,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -65942,7 +65952,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -65962,7 +65972,7 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
@@ -73070,7 +73080,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -73078,14 +73088,44 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -73103,11 +73143,6 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="R601" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="S601" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -73154,11 +73189,6 @@
         </is>
       </c>
       <c r="AB601" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="AC601" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -73197,6 +73227,11 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
           <t>Adequate</t>
         </is>
       </c>
@@ -73210,14 +73245,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -73286,11 +73336,6 @@
         </is>
       </c>
       <c r="AB602" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="AC602" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -73322,19 +73367,54 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="F603" t="inlineStr">
         <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
           <t>Adequate</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -73352,11 +73432,6 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="R603" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="S603" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -73403,11 +73478,6 @@
         </is>
       </c>
       <c r="AB603" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="AC603" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>

--- a/Output/Habitat_Attributes_Ratings_Table.xlsx
+++ b/Output/Habitat_Attributes_Ratings_Table.xlsx
@@ -941,9 +941,24 @@
           <t>Methow</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1493,9 +1508,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4123,9 +4153,14 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -4265,9 +4300,14 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4372,9 +4412,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4561,9 +4616,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4653,9 +4718,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5263,14 +5333,39 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8442,7 +8537,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8562,9 +8657,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8684,9 +8789,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8945,7 +9055,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -9092,7 +9202,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -10380,7 +10490,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -10784,14 +10894,39 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10901,14 +11036,39 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11018,14 +11178,39 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11150,9 +11335,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11247,9 +11442,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11364,9 +11569,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11461,9 +11676,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11548,9 +11773,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -12195,14 +12435,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12327,14 +12582,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12459,14 +12729,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12591,14 +12876,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12728,14 +13028,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12865,14 +13180,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -12997,14 +13327,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -13134,9 +13479,14 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -14184,9 +14534,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -14281,9 +14641,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -14398,9 +14768,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -14520,9 +14900,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -14617,9 +15007,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -14709,9 +15109,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -14826,9 +15236,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -14923,9 +15343,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -15112,6 +15542,11 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -15122,9 +15557,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -15371,9 +15811,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -16936,9 +17386,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -17058,9 +17518,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -17658,9 +18128,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -17775,9 +18255,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -17892,9 +18382,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -18009,9 +18509,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -18126,9 +18636,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -18243,9 +18763,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -18360,9 +18890,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -18477,9 +19017,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -18778,7 +19328,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -18925,17 +19475,17 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -19072,12 +19622,12 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -19224,12 +19774,12 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -19366,7 +19916,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -20104,9 +20654,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -20196,14 +20756,39 @@
           <t>Entiat</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -20335,7 +20920,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -20345,7 +20930,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -20482,7 +21067,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -20492,7 +21077,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -20629,7 +21214,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -20639,7 +21224,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -20776,7 +21361,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -20786,7 +21371,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -20923,7 +21508,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -20933,7 +21518,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -21038,9 +21623,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -21048,14 +21638,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -21160,6 +21765,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -21170,14 +21780,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -21282,6 +21907,11 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -21292,14 +21922,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -21404,6 +22049,11 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -21414,14 +22064,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -21526,6 +22191,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
           <t>At Risk</t>
@@ -21536,14 +22206,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -21648,19 +22333,39 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -21917,6 +22622,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t>At Risk</t>
@@ -21932,9 +22642,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -22081,7 +22801,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -22380,7 +23100,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -23613,9 +24333,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -25718,9 +26443,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -25840,9 +26570,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -25957,9 +26692,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -26074,9 +26814,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -26196,9 +26941,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -26318,9 +27068,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -26440,9 +27195,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -26562,9 +27322,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -26679,9 +27444,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -26781,9 +27551,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -26873,9 +27653,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -26965,9 +27755,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -27443,9 +28243,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -28058,9 +28868,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -28647,17 +29467,37 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
           <t>At Risk</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -28754,17 +29594,37 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
           <t>At Risk</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -28854,14 +29714,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -28946,14 +29831,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -29038,14 +29948,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -29130,14 +30065,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -29222,14 +30182,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -29314,14 +30299,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -29411,9 +30421,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -31035,9 +32050,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -32461,9 +33486,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -33023,14 +34053,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -33145,9 +34190,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -34265,9 +35320,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -35535,14 +36595,34 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -35654,7 +36734,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -35667,14 +36747,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -35804,14 +36899,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -35941,14 +37051,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -36078,14 +37203,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -36215,14 +37355,24 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -36337,9 +37487,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -36810,9 +37965,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -37845,7 +39010,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -37855,7 +39020,7 @@
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -38421,6 +39586,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H325" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -38431,9 +39601,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -38543,6 +39718,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H326" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -38553,9 +39733,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -38660,6 +39845,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H327" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -38670,14 +39860,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -38782,6 +39987,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H328" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -38792,14 +40002,29 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -38899,6 +40124,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H329" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -38909,14 +40139,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -39021,6 +40266,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="H330" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -39031,14 +40281,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -39168,9 +40433,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -39275,9 +40550,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -39377,9 +40662,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -39479,9 +40774,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -39805,14 +41110,19 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -39942,14 +41252,19 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -40079,14 +41394,19 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -40216,14 +41536,19 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -40348,14 +41673,19 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -40480,9 +41810,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -40617,9 +41952,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -40749,14 +42089,19 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -40841,14 +42186,39 @@
           <t>Methow</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -41700,7 +43070,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -41842,12 +43212,12 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -41989,7 +43359,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -42283,7 +43653,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -42425,7 +43795,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -42435,7 +43805,7 @@
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -44351,12 +45721,12 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -44807,7 +46177,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -45694,12 +47064,12 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -45836,12 +47206,12 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -45978,12 +47348,12 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -46125,12 +47495,12 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -46267,12 +47637,12 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -46414,12 +47784,12 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -46556,17 +47926,17 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -46703,17 +48073,17 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -46845,17 +48215,17 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -47806,9 +49176,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -47898,9 +49278,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -47985,14 +49375,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -48077,14 +49492,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -48169,14 +49609,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -48261,14 +49726,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -48353,14 +49843,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -48445,14 +49960,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -48537,14 +50077,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -48629,14 +50194,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -48726,9 +50316,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -48843,9 +50438,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -49258,7 +50858,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -49266,14 +50866,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -49368,9 +50983,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -49507,17 +51137,17 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -49811,17 +51441,17 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -49916,14 +51546,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -50060,7 +51715,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -50481,12 +52136,22 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -50775,7 +52440,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -50785,7 +52450,7 @@
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -50875,14 +52540,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -52536,9 +54226,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -53375,17 +55080,17 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -53527,7 +55232,7 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
@@ -53951,9 +55656,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -54088,9 +55803,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -54205,9 +55930,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -56549,14 +58284,34 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -56818,9 +58573,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -56955,9 +58720,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -57092,9 +58867,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -57229,9 +59014,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -57331,9 +59126,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -57515,9 +59320,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -57806,9 +59621,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -57928,9 +59748,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
@@ -60010,9 +61835,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -60102,9 +61937,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -60627,9 +62467,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -66097,9 +67947,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -66538,6 +68393,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="N551" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -66685,9 +68545,14 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
@@ -66832,9 +68697,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
@@ -66979,9 +68849,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -67123,7 +68998,7 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M555" t="inlineStr">
@@ -68040,7 +69915,7 @@
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N561" t="inlineStr">
@@ -68481,7 +70356,7 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M564" t="inlineStr">
@@ -68491,7 +70366,7 @@
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -68633,7 +70508,7 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M565" t="inlineStr">
@@ -68643,7 +70518,7 @@
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -68785,7 +70660,7 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M566" t="inlineStr">
@@ -68795,7 +70670,7 @@
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -68937,7 +70812,7 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M567" t="inlineStr">
@@ -68947,7 +70822,7 @@
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
@@ -69089,7 +70964,7 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M568" t="inlineStr">
@@ -69099,7 +70974,7 @@
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
@@ -69393,7 +71268,7 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M570" t="inlineStr">
@@ -69403,7 +71278,7 @@
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
@@ -69545,7 +71420,7 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M571" t="inlineStr">
@@ -69555,7 +71430,7 @@
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
@@ -69697,7 +71572,7 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M572" t="inlineStr">
@@ -69707,7 +71582,7 @@
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -69849,7 +71724,7 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M573" t="inlineStr">
@@ -69859,7 +71734,7 @@
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
@@ -70913,7 +72788,7 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M580" t="inlineStr">
@@ -70923,7 +72798,7 @@
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
@@ -71065,7 +72940,7 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M581" t="inlineStr">
@@ -71075,7 +72950,7 @@
       </c>
       <c r="N581" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O581" t="inlineStr">
@@ -71170,14 +73045,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
@@ -71262,14 +73162,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
@@ -71354,14 +73279,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -71446,14 +73396,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -71538,14 +73513,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -71630,14 +73630,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
@@ -71816,17 +73841,37 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -71913,17 +73958,37 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -72015,17 +74080,37 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -72115,14 +74200,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -72237,14 +74347,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -72334,14 +74459,39 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -72436,14 +74586,34 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
@@ -72568,14 +74738,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
@@ -72670,9 +74855,24 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N597" t="inlineStr">
@@ -73409,12 +75609,12 @@
       </c>
       <c r="M603" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -73514,14 +75714,39 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N604" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O604" t="inlineStr">
@@ -73631,14 +75856,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N605" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O605" t="inlineStr">
@@ -73748,14 +75988,29 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O606" t="inlineStr">

--- a/Output/Habitat_Attributes_Ratings_Table.xlsx
+++ b/Output/Habitat_Attributes_Ratings_Table.xlsx
@@ -869,6 +869,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -3115,6 +3120,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -8560,6 +8570,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -10660,6 +10675,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -10807,6 +10827,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -19201,7 +19226,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -32804,6 +32829,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S269" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -32951,6 +32981,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S270" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -43242,7 +43277,7 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
@@ -43536,7 +43571,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="S354" t="inlineStr">
@@ -43681,6 +43716,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="S355" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -44279,11 +44319,6 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="R359" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="S359" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -44431,11 +44466,6 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="R360" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="S360" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -44585,7 +44615,7 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="S361" t="inlineStr">
@@ -52540,6 +52570,26 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
           <t>At Risk</t>
@@ -52547,7 +52597,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -52590,6 +52640,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S422" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -52638,6 +52693,11 @@
       <c r="AB422" t="inlineStr">
         <is>
           <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="AC422" t="inlineStr">
+        <is>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="AD422" t="inlineStr">
@@ -53183,6 +53243,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S426" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -53325,6 +53390,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="S427" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -54236,14 +54306,9 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -54333,9 +54398,14 @@
           <t>Methow</t>
         </is>
       </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -54460,29 +54530,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
-      <c r="J437" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
-      <c r="M437" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -54614,12 +54669,12 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -55232,17 +55287,17 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -55374,27 +55429,27 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -55651,9 +55706,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -55780,7 +55840,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -56044,7 +56104,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -56057,9 +56117,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -56288,7 +56358,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -56415,7 +56485,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -57423,6 +57493,11 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="F461" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -57552,7 +57627,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -57667,11 +57742,6 @@
           <t>Entiat</t>
         </is>
       </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="F463" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -57978,6 +58048,11 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>NaN</t>
@@ -58001,6 +58076,11 @@
       <c r="Q466" t="inlineStr">
         <is>
           <t>Adequate</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="S466" t="inlineStr">
@@ -58087,7 +58167,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -58294,24 +58374,14 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -58438,7 +58508,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -58446,14 +58516,9 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -58568,9 +58633,14 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -58580,7 +58650,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -58727,7 +58797,7 @@
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N472" t="inlineStr">
@@ -58986,7 +59056,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -59228,9 +59298,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -59320,19 +59400,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M477" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -59422,9 +59492,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -59611,6 +59691,11 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="F480" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -59621,14 +59706,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="M480" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
@@ -59740,7 +59820,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -59880,9 +59960,14 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -60074,11 +60159,6 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>Adequate</t>
@@ -60191,9 +60271,14 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -61621,29 +61706,14 @@
           <t>At Risk</t>
         </is>
       </c>
-      <c r="J500" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M500" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -61738,14 +61808,29 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -61835,19 +61920,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="M502" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
@@ -61937,6 +62012,11 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="M503" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -61944,7 +62024,7 @@
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -62467,19 +62547,9 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M508" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
@@ -62666,6 +62736,11 @@
           <t>At Risk</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="F510" t="inlineStr">
         <is>
           <t>Unacceptable</t>
@@ -62828,9 +62903,19 @@
           <t>NaN</t>
         </is>
       </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -63074,7 +63159,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -63395,7 +63480,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -63517,7 +63602,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -64040,29 +64125,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
-      <c r="J522" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
-      <c r="M522" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -64076,6 +64146,11 @@
         </is>
       </c>
       <c r="Q522" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="R522" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -64187,29 +64262,14 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J523" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M523" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -64339,29 +64399,14 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J524" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M524" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
@@ -64493,12 +64538,12 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -64645,22 +64690,22 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N526" t="inlineStr">
@@ -64797,22 +64842,22 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N527" t="inlineStr">
@@ -64959,7 +65004,7 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
@@ -64969,7 +65014,7 @@
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -65253,17 +65298,17 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
@@ -65273,7 +65318,7 @@
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
@@ -65420,7 +65465,7 @@
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N531" t="inlineStr">
@@ -65567,7 +65612,7 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
@@ -65577,7 +65622,7 @@
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -65709,12 +65754,12 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -65876,7 +65921,7 @@
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N534" t="inlineStr">
@@ -66165,7 +66210,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -66175,17 +66220,17 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M536" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
@@ -66332,7 +66377,7 @@
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N537" t="inlineStr">
@@ -66479,17 +66524,17 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M538" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -66925,22 +66970,22 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N541" t="inlineStr">
@@ -67087,7 +67132,7 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
@@ -67239,7 +67284,7 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M543" t="inlineStr">
@@ -67381,12 +67426,12 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -67396,7 +67441,7 @@
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
@@ -67533,12 +67578,12 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -67548,7 +67593,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N545" t="inlineStr">
@@ -67680,12 +67725,12 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -67695,7 +67740,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N546" t="inlineStr">
@@ -67827,12 +67872,12 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -67942,9 +67987,14 @@
           <t>Entiat</t>
         </is>
       </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -67952,9 +68002,14 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
+        </is>
+      </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
@@ -68074,29 +68129,14 @@
           <t>At Risk</t>
         </is>
       </c>
-      <c r="J549" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M549" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
@@ -68226,29 +68266,14 @@
           <t>At Risk</t>
         </is>
       </c>
-      <c r="J550" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M550" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
@@ -68378,29 +68403,14 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J551" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M551" t="inlineStr">
-        <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
@@ -68537,7 +68547,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -68684,7 +68694,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -68694,7 +68704,7 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="M553" t="inlineStr">
@@ -68836,27 +68846,27 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="M554" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
@@ -68988,17 +68998,17 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="M555" t="inlineStr">
@@ -69155,12 +69165,12 @@
       </c>
       <c r="M556" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
@@ -69307,12 +69317,12 @@
       </c>
       <c r="M557" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
@@ -69444,12 +69454,12 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -69606,17 +69616,17 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N559" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O559" t="inlineStr">
@@ -69758,17 +69768,17 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
@@ -69900,7 +69910,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -69910,7 +69920,7 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M561" t="inlineStr">
@@ -70346,7 +70356,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -70356,17 +70366,17 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M564" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
@@ -70498,7 +70508,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -70508,17 +70518,17 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M565" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
@@ -70650,7 +70660,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -70660,17 +70670,17 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M566" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
@@ -70807,7 +70817,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -70959,7 +70969,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -71106,7 +71116,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -71116,7 +71126,7 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M569" t="inlineStr">
@@ -71126,7 +71136,7 @@
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -71263,7 +71273,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -71410,12 +71420,12 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -71562,17 +71572,17 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M572" t="inlineStr">
@@ -71582,7 +71592,7 @@
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
@@ -71714,12 +71724,12 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -71866,12 +71876,12 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -72474,12 +72484,12 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -72626,12 +72636,12 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -72778,12 +72788,12 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -72930,7 +72940,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -73057,12 +73067,12 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -73174,12 +73184,12 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -73291,7 +73301,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -73301,17 +73311,17 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M584" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N584" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O584" t="inlineStr">
@@ -73418,7 +73428,7 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M585" t="inlineStr">
@@ -73428,7 +73438,7 @@
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
@@ -73535,7 +73545,7 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="M586" t="inlineStr">
@@ -73545,7 +73555,7 @@
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
@@ -73642,12 +73652,12 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -73657,7 +73667,7 @@
       </c>
       <c r="M587" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N587" t="inlineStr">
@@ -73747,14 +73757,29 @@
           <t>Methow</t>
         </is>
       </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
@@ -73851,27 +73876,27 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M589" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
@@ -73968,27 +73993,27 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M590" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
@@ -74088,29 +74113,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
-      <c r="J591" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M591" t="inlineStr">
-        <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
@@ -74227,12 +74237,12 @@
       </c>
       <c r="M592" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
@@ -74349,12 +74359,12 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -74364,12 +74374,12 @@
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
@@ -74471,12 +74481,12 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -74486,12 +74496,12 @@
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
@@ -74593,12 +74603,12 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -74740,12 +74750,12 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -74875,9 +74885,19 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>At Risk</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
@@ -74962,14 +74982,29 @@
           <t>Wenatchee</t>
         </is>
       </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -75066,7 +75101,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
+          <t>Adequate</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -75074,14 +75109,29 @@
           <t>Unacceptable</t>
         </is>
       </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
@@ -75303,29 +75353,14 @@
           <t>Unacceptable</t>
         </is>
       </c>
-      <c r="J601" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Unacceptable</t>
-        </is>
-      </c>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>At Risk</t>
-        </is>
-      </c>
-      <c r="M601" t="inlineStr">
-        <is>
-          <t>Unacceptable</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
@@ -75341,6 +75376,11 @@
       <c r="Q601" t="inlineStr">
         <is>
           <t>Adequate</t>
+        </is>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="S601" t="inlineStr">
@@ -75445,29 +75485,14 @@
           <t>At Risk</t>
         </is>
       </c>
-      <c r="J602" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M602" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O602" t="inlineStr">
@@ -75592,29 +75617,14 @@
           <t>Adequate</t>
         </is>
       </c>
-      <c r="J603" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>Adequate</t>
-        </is>
-      </c>
-      <c r="M603" t="inlineStr">
-        <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="N603" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="O603" t="inlineStr">
@@ -75628,6 +75638,11 @@
         </is>
       </c>
       <c r="Q603" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="R603" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -75711,7 +75726,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -75726,22 +75741,22 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="M604" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="N604" t="inlineStr">
@@ -75853,7 +75868,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -75866,7 +75881,17 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K605" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -75985,7 +76010,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>Adequate</t>
+          <t>Unacceptable</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -75998,7 +76023,17 @@
           <t>Adequate</t>
         </is>
       </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K606" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
         <is>
           <t>Adequate</t>
         </is>
@@ -76105,14 +76140,29 @@
           <t>Methow</t>
         </is>
       </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
@@ -76199,12 +76249,17 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N608" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O608" t="inlineStr">
@@ -76291,12 +76346,17 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="N609" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="O609" t="inlineStr">
